--- a/programas/Projects/6_regresionLineal/logxom.xlsx
+++ b/programas/Projects/6_regresionLineal/logxom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1536"/>
+  <dimension ref="A1:J1602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46546,6 +46546,1990 @@
         <v>107.2057598693739</v>
       </c>
     </row>
+    <row r="1537">
+      <c r="A1537" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>91.48000335693359</v>
+      </c>
+      <c r="E1537" t="inlineStr"/>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr"/>
+      <c r="H1537" t="n">
+        <v>0.06223874174881283</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>0.06223874174881283</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>113.8781114718691</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>87.86000061035156</v>
+      </c>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr"/>
+      <c r="H1538" t="n">
+        <v>-0.03957151960803529</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>-0.03957151960803529</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>109.371781550834</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>85.20999908447266</v>
+      </c>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr"/>
+      <c r="H1539" t="n">
+        <v>-0.03016163791793425</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>-0.03016163791793425</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>106.0729494772584</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>86.90000152587891</v>
+      </c>
+      <c r="E1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr"/>
+      <c r="H1540" t="n">
+        <v>0.0198333817575902</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>0.0198333817575902</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>108.1767347783944</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>89.02999877929688</v>
+      </c>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr"/>
+      <c r="H1541" t="n">
+        <v>0.02451090006924406</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>0.02451090006924406</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>110.8282439143647</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
+      <c r="H1542" t="n">
+        <v>0.02774347135313571</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>0.02774347135313571</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>113.9030041245213</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>88.12000274658203</v>
+      </c>
+      <c r="E1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr"/>
+      <c r="H1543" t="n">
+        <v>-0.03693986069309252</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>-0.03693986069309252</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>109.6954430196367</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>85.63999938964844</v>
+      </c>
+      <c r="E1544" t="inlineStr"/>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr"/>
+      <c r="H1544" t="n">
+        <v>-0.02814347798042693</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>-0.02814347798042693</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>106.6082317344604</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>87.55000305175781</v>
+      </c>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr"/>
+      <c r="H1545" t="n">
+        <v>0.02230270522795275</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>0.02230270522795275</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>108.9858837017073</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>84.80999755859375</v>
+      </c>
+      <c r="E1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr"/>
+      <c r="H1546" t="n">
+        <v>-0.03129646370822203</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>-0.03129646370822203</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>105.5750109477283</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>83.27999877929688</v>
+      </c>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
+      <c r="H1547" t="n">
+        <v>-0.01804031155925723</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>-0.01804031155925723</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>103.6704048573593</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>85.94000244140625</v>
+      </c>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr"/>
+      <c r="H1548" t="n">
+        <v>0.03194048632443836</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>0.03194048632443836</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>106.9816880059548</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>86.08000183105469</v>
+      </c>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr"/>
+      <c r="H1549" t="n">
+        <v>0.001629036370389692</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>0.001629036370389692</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>107.1559650666822</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>85.63999938964844</v>
+      </c>
+      <c r="E1550" t="inlineStr"/>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr"/>
+      <c r="H1550" t="n">
+        <v>-0.005111552416899645</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>-0.005111552416899645</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>106.6082317344603</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="E1551" t="inlineStr"/>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr"/>
+      <c r="H1551" t="n">
+        <v>-0.01331152963303539</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>-0.01331152963303539</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>105.1891130986016</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>84.83999633789062</v>
+      </c>
+      <c r="E1552" t="inlineStr"/>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr"/>
+      <c r="H1552" t="n">
+        <v>0.004023625300480838</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>0.004023625300480838</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>105.6123546754002</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>83.13999938964844</v>
+      </c>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="inlineStr"/>
+      <c r="H1553" t="n">
+        <v>-0.02003768295170172</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>-0.02003768295170172</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>103.4961277966319</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>84.54000091552734</v>
+      </c>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr"/>
+      <c r="H1554" t="n">
+        <v>0.01683908511133825</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>0.01683908511133825</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>105.2389079012933</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>86.09999847412109</v>
+      </c>
+      <c r="E1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr"/>
+      <c r="H1555" t="n">
+        <v>0.01845277432812553</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>0.01845277432812553</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>107.1808577193343</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>88.26999664306641</v>
+      </c>
+      <c r="E1556" t="inlineStr"/>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="inlineStr"/>
+      <c r="H1556" t="n">
+        <v>0.0252032312125714</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>0.0252032312125714</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>109.8821616579964</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>89.23999786376953</v>
+      </c>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr"/>
+      <c r="H1557" t="n">
+        <v>0.01098902523612266</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>0.01098902523612266</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>111.0896595054558</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr"/>
+      <c r="H1558" t="n">
+        <v>-0.01669652509454456</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>-0.01669652509454456</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>109.2348482177786</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>87.08000183105469</v>
+      </c>
+      <c r="E1559" t="inlineStr"/>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
+      <c r="H1559" t="n">
+        <v>-0.007635306768607575</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>-0.007635306768607575</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>108.4008066418135</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>89.98000335693359</v>
+      </c>
+      <c r="E1560" t="inlineStr"/>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr"/>
+      <c r="H1560" t="n">
+        <v>0.03330272697404446</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>0.03330272697404446</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>112.010849109172</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>89.62999725341797</v>
+      </c>
+      <c r="E1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr"/>
+      <c r="H1561" t="n">
+        <v>-0.003889820965300661</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>-0.003889820965300661</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>111.575146959966</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>91.56999969482422</v>
+      </c>
+      <c r="E1562" t="inlineStr"/>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="inlineStr"/>
+      <c r="H1562" t="n">
+        <v>0.02164456656091529</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>0.02164456656091529</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>113.9901426548849</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>92.63999938964844</v>
+      </c>
+      <c r="E1563" t="inlineStr"/>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="inlineStr"/>
+      <c r="H1563" t="n">
+        <v>0.01168504639500068</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>0.01168504639500068</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>115.32212276038</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>96.93000030517578</v>
+      </c>
+      <c r="E1564" t="inlineStr"/>
+      <c r="F1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1564" t="inlineStr"/>
+      <c r="H1564" t="n">
+        <v>0.04630830034317457</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>0.04630830034317457</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>94.48000335693359</v>
+      </c>
+      <c r="E1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
+      <c r="H1565" t="n">
+        <v>-0.02527594078746087</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>94.06999969482422</v>
+      </c>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
+      <c r="H1566" t="n">
+        <v>-0.004339581366867962</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>91.01999664306641</v>
+      </c>
+      <c r="E1567" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr"/>
+      <c r="H1567" t="n">
+        <v>-0.03242269652017049</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>87.19000244140625</v>
+      </c>
+      <c r="E1568" t="inlineStr"/>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="inlineStr"/>
+      <c r="H1568" t="n">
+        <v>-0.04207860187777668</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>88.44999694824219</v>
+      </c>
+      <c r="E1569" t="inlineStr"/>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr"/>
+      <c r="H1569" t="n">
+        <v>0.01445113512507001</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="E1570" t="inlineStr"/>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr"/>
+      <c r="H1570" t="n">
+        <v>0.005652911444333775</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>90.58999633789062</v>
+      </c>
+      <c r="E1571" t="inlineStr"/>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="inlineStr"/>
+      <c r="H1571" t="n">
+        <v>0.01843731811033922</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>91.44999694824219</v>
+      </c>
+      <c r="E1572" t="inlineStr"/>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="inlineStr"/>
+      <c r="H1572" t="n">
+        <v>0.009493328679955448</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>93.19000244140625</v>
+      </c>
+      <c r="E1573" t="inlineStr"/>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="inlineStr"/>
+      <c r="H1573" t="n">
+        <v>0.01902685129829851</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>94</v>
+      </c>
+      <c r="E1574" t="inlineStr"/>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr"/>
+      <c r="H1574" t="n">
+        <v>0.008691893308008458</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>92.31999969482422</v>
+      </c>
+      <c r="E1575" t="inlineStr"/>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="inlineStr"/>
+      <c r="H1575" t="n">
+        <v>-0.01787234367208279</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>91.45999908447266</v>
+      </c>
+      <c r="E1576" t="inlineStr"/>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr"/>
+      <c r="H1576" t="n">
+        <v>-0.009315431252105766</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>92.19999694824219</v>
+      </c>
+      <c r="E1577" t="inlineStr"/>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr"/>
+      <c r="H1577" t="n">
+        <v>0.008090945453498977</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>94.37999725341797</v>
+      </c>
+      <c r="E1578" t="inlineStr"/>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr"/>
+      <c r="H1578" t="n">
+        <v>0.02364425571943962</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>94.08000183105469</v>
+      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
+      <c r="H1579" t="n">
+        <v>-0.003178591132586783</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>94.01000213623047</v>
+      </c>
+      <c r="E1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
+      <c r="H1580" t="n">
+        <v>-0.0007440443607762415</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>98</v>
+      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
+      <c r="H1581" t="n">
+        <v>0.04244226968517251</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>98.58000183105469</v>
+      </c>
+      <c r="E1582" t="inlineStr"/>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr"/>
+      <c r="H1582" t="n">
+        <v>0.005918386031170231</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>99.08999633789062</v>
+      </c>
+      <c r="E1583" t="inlineStr"/>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr"/>
+      <c r="H1583" t="n">
+        <v>0.005173407358116666</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>97.87000274658203</v>
+      </c>
+      <c r="E1584" t="inlineStr"/>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr"/>
+      <c r="H1584" t="n">
+        <v>-0.01231197533955386</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>100.120002746582</v>
+      </c>
+      <c r="E1585" t="inlineStr"/>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr"/>
+      <c r="H1585" t="n">
+        <v>0.02298967954283193</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>96.30999755859375</v>
+      </c>
+      <c r="E1586" t="inlineStr"/>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr"/>
+      <c r="H1586" t="n">
+        <v>-0.03805438557200147</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>95.58999633789062</v>
+      </c>
+      <c r="E1587" t="inlineStr"/>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr"/>
+      <c r="H1587" t="n">
+        <v>-0.007475872068889666</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>93.87000274658203</v>
+      </c>
+      <c r="E1588" t="inlineStr"/>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr"/>
+      <c r="H1588" t="n">
+        <v>-0.01799344761170174</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>95.58999633789062</v>
+      </c>
+      <c r="E1589" t="inlineStr"/>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr"/>
+      <c r="H1589" t="n">
+        <v>0.01832314414597391</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>94.94999694824219</v>
+      </c>
+      <c r="E1590" t="inlineStr"/>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="inlineStr"/>
+      <c r="H1590" t="n">
+        <v>-0.00669525488196665</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>94.13999938964844</v>
+      </c>
+      <c r="E1591" t="inlineStr"/>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr"/>
+      <c r="H1591" t="n">
+        <v>-0.008530780248842795</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>94.91000366210938</v>
+      </c>
+      <c r="E1592" t="inlineStr"/>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr"/>
+      <c r="H1592" t="n">
+        <v>0.008179352851638289</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E1593" t="inlineStr"/>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="inlineStr"/>
+      <c r="H1593" t="n">
+        <v>0.01675267386514068</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>97.61000061035156</v>
+      </c>
+      <c r="E1594" t="inlineStr"/>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr"/>
+      <c r="H1594" t="n">
+        <v>0.01150259699846168</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>95.33000183105469</v>
+      </c>
+      <c r="E1595" t="inlineStr"/>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr"/>
+      <c r="H1595" t="n">
+        <v>-0.02335824982112622</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>97.66999816894531</v>
+      </c>
+      <c r="E1596" t="inlineStr"/>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr"/>
+      <c r="H1596" t="n">
+        <v>0.0245462739215887</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>94.83000183105469</v>
+      </c>
+      <c r="E1597" t="inlineStr"/>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr"/>
+      <c r="H1597" t="n">
+        <v>-0.02907746893757612</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>93.20999908447266</v>
+      </c>
+      <c r="E1598" t="inlineStr"/>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr"/>
+      <c r="H1598" t="n">
+        <v>-0.01708323015186863</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="E1599" t="inlineStr"/>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr"/>
+      <c r="H1599" t="n">
+        <v>-0.0001073075456358152</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>92.44000244140625</v>
+      </c>
+      <c r="E1600" t="inlineStr"/>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr"/>
+      <c r="H1600" t="n">
+        <v>-0.008154447765250428</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>90.94999694824219</v>
+      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="n">
+        <v>9.125019684221286</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>-0.01611862239086925</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>120.6624942573801</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>90.56999969482422</v>
+      </c>
+      <c r="E1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr"/>
+      <c r="H1602" t="n">
+        <v>-0.004178089787449046</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>-0.004178089787449046</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>120.1583555223952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
